--- a/python_helpers/tests_data/russki4class.xlsx
+++ b/python_helpers/tests_data/russki4class.xlsx
@@ -260,7 +260,7 @@
     <t xml:space="preserve">36 км в час</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;details&gt;&lt;summary&gt;Нажмите, чтобы открыть текст&lt;/summary&gt;&lt;p&gt;Прочитай текст и выполни задания 6-15:(1) В детстве мне подарили кедровую шишку. (2) Я любил брать её вруки и рассматривать и всё удивлялся, какая она большая и тяжёлая –настоящий сундучок с орехами.(3) И вот через много лет попал я в Саяны и сразу отыскал кедр. (4)Растёт он высоко в горах, ветры его набок клонят, стараются к землепригнуть, скрючить.(5) А кедр вцепился корнями в землю и тянется всё выше и выше, веськосматый от зелёных веток. (6) На кончиках веток кедровые шишки висят.(7) Орешки ещё не поспели, но много вокруг зверьков и птиц живёт. (8) Кедрих всех кормит, вот они и ждут, когда поспеют орешки.(9) Белочка свалит шишку на землю, вынет орешки, да не все – один даостанется. (10) Этот орешек утащит к себе в норку мышь. (11) Она подеревьям лазить не умеет, а орешков ей тоже хочется.(12) Синицы весь день прыгают на кедре. (13) Издалека послушаешь –как будто весь кедр щебечет.(14) Осенью ещё больше зверьков на кедре живёт: кедровки, бурундукипо веткам так и скачут, прячут про запас орешки под камни и в землюзарывают.(15) И когда начнут падать с неба первые снежинки, на кедре совсем неостанется шишек.(16) А кедру не жалко. (17) Стоит он весь живой и тянется зелёнымиветками всё выше и выше к солнцу.(Геннадий Снегирёв)&lt;/p&gt;&lt;/details&gt;</t>
+    <t xml:space="preserve">Прочитай текст и выполни задания: В детстве мне подарили кедровую шишку. (2) Я любил брать её вруки и рассматривать и всё удивлялся, какая она большая и тяжёлая –настоящий сундучок с орехами.(3) И вот через много лет попал я в Саяны и сразу отыскал кедр. (4)Растёт он высоко в горах, ветры его набок клонят, стараются к землепригнуть, скрючить.(5) А кедр вцепился корнями в землю и тянется всё выше и выше, веськосматый от зелёных веток. (6) На кончиках веток кедровые шишки висят.(7) Орешки ещё не поспели, но много вокруг зверьков и птиц живёт. (8) Кедрих всех кормит, вот они и ждут, когда поспеют орешки.(9) Белочка свалит шишку на землю, вынет орешки, да не все – один даостанется. (10) Этот орешек утащит к себе в норку мышь. (11) Она подеревьям лазить не умеет, а орешков ей тоже хочется.(12) Синицы весь день прыгают на кедре. (13) Издалека послушаешь –как будто весь кедр щебечет.(14) Осенью ещё больше зверьков на кедре живёт: кедровки, бурундукипо веткам так и скачут, прячут про запас орешки под камни и в землюзарывают.(15) И когда начнут падать с неба первые снежинки, на кедре совсем неостанется шишек.(16) А кедру не жалко. (17) Стоит он весь живой и тянется зелёнымиветками всё выше и выше к солнцу.(Геннадий Снегирёв)</t>
   </si>
   <si>
     <t xml:space="preserve">Выбери значение слова «щебечет» (предложение 13)</t>
@@ -358,19 +358,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -435,9 +432,8 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <name val="AR PL UMing CN"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -702,11 +698,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.27"/>
@@ -1115,8 +1111,8 @@
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
